--- a/trunk/documentation/1.0 Requirements/Traceability Matrix 3.0 Context Switch.xlsx
+++ b/trunk/documentation/1.0 Requirements/Traceability Matrix 3.0 Context Switch.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="105">
   <si>
     <t>Program</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Sergio</t>
-  </si>
-  <si>
-    <t>Miguel/Esteban</t>
   </si>
   <si>
     <t>Esteban</t>
@@ -581,6 +578,9 @@
     <t>All tasks shall set high and low a pin level when entering or
 terminating a task respectively.
 – PB0 .. PB7, PA4 and PA5</t>
+  </si>
+  <si>
+    <t>Sergio/Miguel</t>
   </si>
 </sst>
 </file>
@@ -984,6 +984,15 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1016,15 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1899,9 +1899,9 @@
   </sheetPr>
   <dimension ref="A1:IF65360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelCol="1"/>
@@ -1934,9 +1934,9 @@
       <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="21.6" customHeight="1" thickTop="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="18" t="s">
         <v>0</v>
       </c>
@@ -1951,14 +1951,14 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1968,14 +1968,14 @@
       <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1985,9 +1985,9 @@
       <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="45">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="18" t="s">
         <v>9</v>
       </c>
@@ -2002,9 +2002,9 @@
       <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="45.75" thickBot="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="18" t="s">
         <v>5</v>
       </c>
@@ -2014,18 +2014,18 @@
       <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54" t="s">
+      <c r="H6" s="56"/>
+      <c r="I6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="55"/>
-      <c r="K6" s="51" t="s">
+      <c r="J6" s="58"/>
+      <c r="K6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="52"/>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" ht="16.5" thickTop="1">
       <c r="A7" s="16" t="s">
@@ -2068,17 +2068,19 @@
     <row r="8" spans="1:12" s="4" customFormat="1" ht="105.75">
       <c r="A8" s="12"/>
       <c r="B8" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="F8" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -2094,24 +2096,26 @@
     <row r="9" spans="1:12" s="4" customFormat="1" ht="111" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="34" t="s">
-        <v>74</v>
-      </c>
       <c r="G9" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="38">
@@ -2124,24 +2128,26 @@
     <row r="10" spans="1:12" s="4" customFormat="1" ht="45.75">
       <c r="A10" s="12"/>
       <c r="B10" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="F10" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="38">
@@ -2154,24 +2160,26 @@
     <row r="11" spans="1:12" s="4" customFormat="1" ht="93">
       <c r="A11" s="12"/>
       <c r="B11" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="14"/>
+      <c r="D11" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="F11" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="38">
@@ -2184,24 +2192,26 @@
     <row r="12" spans="1:12" s="4" customFormat="1" ht="75.75">
       <c r="A12" s="12"/>
       <c r="B12" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="14"/>
+      <c r="D12" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="F12" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="38">
@@ -2214,20 +2224,22 @@
     <row r="13" spans="1:12" s="4" customFormat="1" ht="90">
       <c r="A13" s="12"/>
       <c r="B13" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="14"/>
+      <c r="D13" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="F13" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="31" t="s">
@@ -2244,24 +2256,26 @@
     <row r="14" spans="1:12" s="4" customFormat="1" ht="76.5">
       <c r="A14" s="12"/>
       <c r="B14" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="33" t="s">
-        <v>82</v>
-      </c>
       <c r="G14" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="38">
@@ -2274,26 +2288,26 @@
     <row r="15" spans="1:12" s="4" customFormat="1" ht="77.25" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="57" t="s">
-        <v>83</v>
+      <c r="D15" s="46" t="s">
+        <v>82</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="38">
@@ -2306,26 +2320,26 @@
     <row r="16" spans="1:12" s="4" customFormat="1" ht="45">
       <c r="A16" s="12"/>
       <c r="B16" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="56" t="s">
-        <v>84</v>
+      <c r="D16" s="45" t="s">
+        <v>83</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="38">
@@ -2338,26 +2352,26 @@
     <row r="17" spans="1:12" s="4" customFormat="1" ht="75">
       <c r="A17" s="12"/>
       <c r="B17" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>86</v>
-      </c>
       <c r="G17" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="38">
@@ -2370,26 +2384,26 @@
     <row r="18" spans="1:12" s="4" customFormat="1" ht="90">
       <c r="A18" s="12"/>
       <c r="B18" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="56" t="s">
-        <v>87</v>
+      <c r="D18" s="45" t="s">
+        <v>86</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="38">
@@ -2402,22 +2416,22 @@
     <row r="19" spans="1:12" s="4" customFormat="1" ht="45">
       <c r="A19" s="12"/>
       <c r="B19" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>89</v>
-      </c>
       <c r="G19" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="31" t="s">
@@ -2434,26 +2448,26 @@
     <row r="20" spans="1:12" s="4" customFormat="1" ht="45">
       <c r="A20" s="12"/>
       <c r="B20" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="56" t="s">
-        <v>90</v>
+      <c r="D20" s="45" t="s">
+        <v>89</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="38">
@@ -2466,26 +2480,26 @@
     <row r="21" spans="1:12" s="4" customFormat="1" ht="45">
       <c r="A21" s="12"/>
       <c r="B21" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="57" t="s">
-        <v>91</v>
+      <c r="D21" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="38">
@@ -2498,26 +2512,26 @@
     <row r="22" spans="1:12" s="4" customFormat="1" ht="30">
       <c r="A22" s="12"/>
       <c r="B22" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="56" t="s">
-        <v>92</v>
+      <c r="D22" s="45" t="s">
+        <v>91</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="38">
@@ -2530,26 +2544,26 @@
     <row r="23" spans="1:12" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="57" t="s">
-        <v>93</v>
+      <c r="D23" s="46" t="s">
+        <v>92</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="38">
@@ -2562,26 +2576,26 @@
     <row r="24" spans="1:12" s="4" customFormat="1" ht="30">
       <c r="A24" s="12"/>
       <c r="B24" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="56" t="s">
-        <v>94</v>
+      <c r="D24" s="45" t="s">
+        <v>93</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="38">
@@ -2594,26 +2608,26 @@
     <row r="25" spans="1:12" s="4" customFormat="1" ht="135">
       <c r="A25" s="12"/>
       <c r="B25" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>98</v>
-      </c>
       <c r="G25" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="42">
@@ -2626,22 +2640,22 @@
     <row r="26" spans="1:12" s="4" customFormat="1" ht="60">
       <c r="A26" s="12"/>
       <c r="B26" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>100</v>
-      </c>
       <c r="G26" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
@@ -2656,22 +2670,22 @@
     <row r="27" spans="1:12" s="4" customFormat="1" ht="75">
       <c r="A27" s="12"/>
       <c r="B27" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="56" t="s">
-        <v>101</v>
+      <c r="D27" s="45" t="s">
+        <v>100</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
@@ -2686,22 +2700,22 @@
     <row r="28" spans="1:12" s="4" customFormat="1" ht="30">
       <c r="A28" s="12"/>
       <c r="B28" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="56" t="s">
-        <v>102</v>
+      <c r="D28" s="45" t="s">
+        <v>101</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F28" s="35" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
@@ -2716,13 +2730,13 @@
     <row r="29" spans="1:12" s="4" customFormat="1" ht="90">
       <c r="A29" s="12"/>
       <c r="B29" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="56" t="s">
-        <v>103</v>
+      <c r="D29" s="45" t="s">
+        <v>102</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>31</v>
@@ -2731,7 +2745,7 @@
         <v>30</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -2746,15 +2760,17 @@
     <row r="30" spans="1:12" s="4" customFormat="1" ht="45.75">
       <c r="A30" s="12"/>
       <c r="B30" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="14"/>
+        <v>103</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="F30" s="35" t="s">
         <v>30</v>
       </c>

--- a/trunk/documentation/1.0 Requirements/Traceability Matrix 3.0 Context Switch.xlsx
+++ b/trunk/documentation/1.0 Requirements/Traceability Matrix 3.0 Context Switch.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5685" yWindow="4920" windowWidth="4470" windowHeight="3975" tabRatio="744"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_Toc15890552" localSheetId="0">'Software reqs'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -639,7 +639,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,12 +685,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,7 +874,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1002,8 +996,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1023,22 +1017,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1625,7 +1616,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1914,12 +1905,12 @@
   </sheetPr>
   <dimension ref="A1:IF65360"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="22" customWidth="1"/>
@@ -2026,18 +2017,18 @@
       <c r="E6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="56" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="55"/>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="59" t="s">
+      <c r="J6" s="58"/>
+      <c r="K6" s="54" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="55"/>
@@ -2176,7 +2167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="93" hidden="1">
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="93">
       <c r="A11" s="11"/>
       <c r="B11" s="18" t="s">
         <v>37</v>
@@ -2206,7 +2197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="75.75" hidden="1">
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="75.75">
       <c r="A12" s="11"/>
       <c r="B12" s="18" t="s">
         <v>38</v>
@@ -2217,7 +2208,7 @@
       <c r="D12" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="32" t="s">
@@ -2236,7 +2227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="90" hidden="1">
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="90">
       <c r="A13" s="11"/>
       <c r="B13" s="18" t="s">
         <v>39</v>
@@ -2247,7 +2238,7 @@
       <c r="D13" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="33" t="s">
@@ -2266,7 +2257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="76.5" hidden="1">
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="76.5">
       <c r="A14" s="11"/>
       <c r="B14" s="18" t="s">
         <v>40</v>
@@ -2277,7 +2268,7 @@
       <c r="D14" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="32" t="s">
@@ -2296,7 +2287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="77.25" hidden="1" customHeight="1">
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="77.25" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="18" t="s">
         <v>41</v>
@@ -2307,7 +2298,7 @@
       <c r="D15" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="33" t="s">
@@ -2326,7 +2317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="45" hidden="1">
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="45">
       <c r="A16" s="11"/>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -2337,7 +2328,7 @@
       <c r="D16" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="32" t="s">
